--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3729432.938057854</v>
+        <v>3727037.282052672</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7599947.162454613</v>
+        <v>7599947.162454614</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>141.4657036603251</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504415</v>
+        <v>412.2877386950442</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T2" t="n">
-        <v>30.17034067343137</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.8555903183376</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>155.783668952347</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>126.137963440952</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>142.7166733408782</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>144.9542020112904</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>20.59186093081874</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>74.40093796795497</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>69.35359439861583</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>48.10606217900137</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>60.55071286939874</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>60.86538463674672</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.08886905994775</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.74993283584276</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.214085525555</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.251568585143</v>
+        <v>929.8068589052361</v>
       </c>
       <c r="D2" t="n">
-        <v>860.9858699783929</v>
+        <v>929.8068589052361</v>
       </c>
       <c r="E2" t="n">
-        <v>475.1976173801486</v>
+        <v>786.9122087432916</v>
       </c>
       <c r="F2" t="n">
-        <v>64.21171259054108</v>
+        <v>779.9667079940881</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>363.5144466859626</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>293.3053724073749</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723717</v>
+        <v>455.1003844723682</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905637</v>
+        <v>692.7231656905576</v>
       </c>
       <c r="M2" t="n">
-        <v>988.7937322481667</v>
+        <v>1333.746375310452</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.268838483752</v>
+        <v>1639.221481546034</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>2077.249136779527</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2277.553464068628</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2559.517674551661</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2305.876812933247</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>1974.813925589677</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1974.813925589677</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>1974.813925589677</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="Y2" t="n">
-        <v>1974.813925589677</v>
+        <v>1298.769375845648</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884146</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.629392168681</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.99742130093851</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214994985</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>198.5384744202275</v>
       </c>
       <c r="L3" t="n">
-        <v>900.09141451049</v>
+        <v>775.261289523481</v>
       </c>
       <c r="M3" t="n">
-        <v>1164.030946005978</v>
+        <v>1039.200821018967</v>
       </c>
       <c r="N3" t="n">
-        <v>1449.364816439311</v>
+        <v>1680.224030638861</v>
       </c>
       <c r="O3" t="n">
-        <v>2078.093464274732</v>
+        <v>1919.028982390317</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4440,7 +4440,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>654.076777181466</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="C4" t="n">
-        <v>654.076777181466</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D4" t="n">
-        <v>503.9601377691303</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E4" t="n">
-        <v>356.0470441867371</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="F4" t="n">
-        <v>209.1570966888268</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018363</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341292</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666685</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092684</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357422</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>991.0700018628611</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>766.6588426382991</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>639.2467583545092</v>
       </c>
       <c r="V4" t="n">
-        <v>1056.517821155236</v>
+        <v>639.2467583545092</v>
       </c>
       <c r="W4" t="n">
-        <v>1056.517821155236</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="X4" t="n">
-        <v>1056.517821155236</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="Y4" t="n">
-        <v>835.7252420117057</v>
+        <v>349.8295883175485</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2056.974540206873</v>
+        <v>892.5163971443462</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.012023266461</v>
+        <v>892.5163971443462</v>
       </c>
       <c r="D5" t="n">
-        <v>1329.746324659711</v>
+        <v>892.5163971443462</v>
       </c>
       <c r="E5" t="n">
-        <v>943.9580720614667</v>
+        <v>506.728144546102</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718591</v>
+        <v>499.7826437968985</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719911</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
         <v>447.8319447135512</v>
@@ -4574,7 +4574,7 @@
         <v>804.6133007477385</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
@@ -4598,19 +4598,19 @@
         <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.574380270995</v>
+        <v>1652.581995469548</v>
       </c>
       <c r="X5" t="n">
-        <v>2443.574380270995</v>
+        <v>1279.116237208468</v>
       </c>
       <c r="Y5" t="n">
-        <v>2443.574380270995</v>
+        <v>1279.116237208468</v>
       </c>
     </row>
     <row r="6">
@@ -4629,40 +4629,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>426.7768722128337</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291485</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>1090.394710821474</v>
+        <v>965.5645858344687</v>
       </c>
       <c r="N6" t="n">
-        <v>1731.417920441368</v>
+        <v>1554.712543231644</v>
       </c>
       <c r="O6" t="n">
-        <v>2066.346601156899</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2315.823329021918</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.6319074814764</v>
+        <v>370.6294478436281</v>
       </c>
       <c r="C7" t="n">
-        <v>664.6957245535696</v>
+        <v>370.6294478436281</v>
       </c>
       <c r="D7" t="n">
-        <v>514.5790851412338</v>
+        <v>220.5128084312924</v>
       </c>
       <c r="E7" t="n">
-        <v>366.6659915588407</v>
+        <v>72.59971484889925</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>72.59971484889925</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>72.59971484889925</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>72.59971484889925</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.831207559984</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.831207559984</v>
+        <v>1255.744530921302</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.831207559984</v>
+        <v>1001.060042715415</v>
       </c>
       <c r="W7" t="n">
-        <v>1282.414037523024</v>
+        <v>1001.060042715415</v>
       </c>
       <c r="X7" t="n">
-        <v>1054.424486625006</v>
+        <v>773.070491817398</v>
       </c>
       <c r="Y7" t="n">
-        <v>833.6319074814764</v>
+        <v>552.2779126738678</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1956.758668740671</v>
+        <v>933.1596152839984</v>
       </c>
       <c r="C8" t="n">
-        <v>1587.796151800259</v>
+        <v>564.1970983435867</v>
       </c>
       <c r="D8" t="n">
-        <v>1229.530453193509</v>
+        <v>205.9313997368362</v>
       </c>
       <c r="E8" t="n">
-        <v>843.7422005952644</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F8" t="n">
-        <v>432.7562958056569</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
         <v>117.2903254719912</v>
@@ -4805,13 +4805,13 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2541.400784141994</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2287.821556084241</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>1956.758668740671</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W8" t="n">
-        <v>1956.758668740671</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X8" t="n">
-        <v>1956.758668740671</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="Y8" t="n">
-        <v>1956.758668740671</v>
+        <v>1319.75945534812</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>125.2371614729357</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>573.7192355186012</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>871.0311846349159</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.337074127241</v>
+        <v>1240.281905962037</v>
       </c>
       <c r="N9" t="n">
-        <v>1627.746635452984</v>
+        <v>1630.69146728778</v>
       </c>
       <c r="O9" t="n">
-        <v>1962.675316168515</v>
+        <v>1965.620148003311</v>
       </c>
       <c r="P9" t="n">
-        <v>2212.152044033533</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.6557187433658</v>
+        <v>112.9621915545356</v>
       </c>
       <c r="C10" t="n">
-        <v>496.7195358154589</v>
+        <v>112.9621915545356</v>
       </c>
       <c r="D10" t="n">
-        <v>346.6028964031232</v>
+        <v>112.9621915545356</v>
       </c>
       <c r="E10" t="n">
-        <v>198.6898028207301</v>
+        <v>112.9621915545356</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>112.9621915545356</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1321.927733452885</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>1032.809956463283</v>
       </c>
       <c r="V10" t="n">
-        <v>1585.503483652114</v>
+        <v>1032.809956463283</v>
       </c>
       <c r="W10" t="n">
-        <v>1296.086313615153</v>
+        <v>743.3927864263228</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.096762717136</v>
+        <v>515.4032355283055</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.3041835736055</v>
+        <v>294.6106563847753</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,40 +5051,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,10 +5765,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,13 +6002,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,61 +6215,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,19 +6297,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,16 +7254,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7552,10 +7552,10 @@
         <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7985,22 +7985,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942364</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>151.6735093079758</v>
+        <v>164.5570059766275</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159832</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945085</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>66.98553110338671</v>
+        <v>227.6567249260308</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1450992870217</v>
+        <v>200.7458546176089</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>309.1863928326898</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.6961128228667</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>10.05242792961577</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>277.4922425530995</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>232.4400048971989</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290894</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.834720516252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>690483.089478737</v>
+        <v>690483.0894787376</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371157</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371157</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753946</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898926</v>
+        <v>172764.3597898961</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.867745751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260479</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151605</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,22 +26424,22 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695015</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695058</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695082</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169507</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695091</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695059</v>
@@ -26451,13 +26451,13 @@
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
+        <v>6287.480531695054</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6287.480531695053</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695072</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699082</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408824.1682164797</v>
+        <v>-408824.1682164767</v>
       </c>
       <c r="C6" t="n">
-        <v>384677.4774944194</v>
+        <v>384677.4774944159</v>
       </c>
       <c r="D6" t="n">
-        <v>557441.8372843124</v>
+        <v>557441.8372843119</v>
       </c>
       <c r="E6" t="n">
-        <v>158490.3916041527</v>
+        <v>158455.6536787169</v>
       </c>
       <c r="F6" t="n">
-        <v>659379.2593499033</v>
+        <v>659344.5214244679</v>
       </c>
       <c r="G6" t="n">
-        <v>659379.2593499036</v>
+        <v>659344.5214244683</v>
       </c>
       <c r="H6" t="n">
-        <v>659379.2593499038</v>
+        <v>659344.5214244681</v>
       </c>
       <c r="I6" t="n">
-        <v>659379.2593499037</v>
+        <v>659344.521424468</v>
       </c>
       <c r="J6" t="n">
-        <v>489965.2425238558</v>
+        <v>489930.5045984199</v>
       </c>
       <c r="K6" t="n">
-        <v>659379.2593499033</v>
+        <v>659344.5214244681</v>
       </c>
       <c r="L6" t="n">
-        <v>659379.2593499037</v>
+        <v>659344.5214244678</v>
       </c>
       <c r="M6" t="n">
-        <v>528494.8024456686</v>
+        <v>528460.064520233</v>
       </c>
       <c r="N6" t="n">
-        <v>659379.2593499038</v>
+        <v>659344.5214244678</v>
       </c>
       <c r="O6" t="n">
-        <v>659379.2593499036</v>
+        <v>659344.521424468</v>
       </c>
       <c r="P6" t="n">
-        <v>659379.2593499039</v>
+        <v>659344.5214244681</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976066</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498445</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="C4" t="n">
         <v>647.4981915352464</v>
@@ -26796,7 +26796,7 @@
         <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976066</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152234</v>
+        <v>189.7254341522379</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>240.4646664119367</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>94.2401475588522</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>179.7273515557521</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>10.85488573046035</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>160.107297296867</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>268.8083500409911</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>204.2867667061226</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>83.89879858218239</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>146.3042907454835</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>312.576775673646</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>158.4528437667594</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>105.7457139813308</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>191.2722586870813</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066884</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611354</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014917</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658661</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485874</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072702</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674097</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743141</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307748</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605096</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911955</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257138</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433283</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.91929960289</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969209</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993398</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777185</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.6164245685555</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932496</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965164</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189581</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,19 +33740,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>243.9449667520759</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>163.4293051161549</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315045</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.5607133692752</v>
       </c>
       <c r="O2" t="n">
-        <v>429.5686803348794</v>
+        <v>442.4521770035282</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223243</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185443</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932336</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>122.6495881517956</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>582.5482980840945</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>266.6055873691772</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812694</v>
       </c>
       <c r="P3" t="n">
-        <v>241.0551886323865</v>
+        <v>401.7263824550288</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>276.0148132527177</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882727</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000435</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.0850811794442</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
+        <v>595.0989468658335</v>
+      </c>
+      <c r="O6" t="n">
         <v>647.4981915352464</v>
       </c>
-      <c r="O6" t="n">
-        <v>338.3117987025568</v>
-      </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>248.725799052629</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>74.17909712132929</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N9" t="n">
         <v>394.3530922482246</v>
@@ -35267,13 +35267,13 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>484.4366997103492</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37798,10 +37798,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
